--- a/taxonomy.xlsx
+++ b/taxonomy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/wear/</t>
+          <t>http://purl.org/wide/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>wear</t>
+          <t>wide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/wear/</t>
+          <t>http://purl.org/wide/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Wind Energy mAteRials (WEAR) Taxonomy</t>
+          <t>WInd energy moDEls (WIDE) Taxonomy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A classification of wind turbine materials</t>
+          <t>A classification of models used in wind energy</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -960,20 +960,16 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>wear:Blades</t>
+          <t>wide:MeteorologicalModels</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Blades</t>
+          <t>Meteorological Models</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>A collection of terms related to materials used for the wind turbine blade production.</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -992,20 +988,16 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>wear:Tower</t>
+          <t>wide:OceanographicModels</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tower</t>
+          <t>Oceanographic Models</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>A collection of terms related to materials used for the wind tower production.</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1024,22 +1016,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>wear:Drivetrain</t>
+          <t>wide:HydrodynamicModels</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Drivetrain</t>
+          <t>Hydrodynamic Models</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>A collection of terms related to materials used for the wind turbine drivetrain production.</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>wide:OceanographicModels</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1056,22 +1048,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>wear:TransformerAndInductor</t>
+          <t>wide:WaveModels</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transformer And Inductor</t>
+          <t>Wave Models</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>A collection of terms related to materials used for the wind turbine transformer and industor production.</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>wide:OceanographicModels</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1088,22 +1080,18 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>wear:Compositelaminate</t>
+          <t>wide:FlowModels</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Composite laminate</t>
+          <t>Flow Models</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>wear:Blades</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1120,22 +1108,18 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>wear:SandwichStructure</t>
+          <t>wide:AerolasticModels</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sandwich Structure</t>
+          <t>Aerolastic Models</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>wear:Blades</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1152,22 +1136,18 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>wear:Gealcoats</t>
+          <t>wide:ElectricalModels</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Geal coats</t>
+          <t>Electrical Models</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>wear:Blades</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1184,22 +1164,18 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>wear:Steel</t>
+          <t>wide:FinancialModels</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Financial Models</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>wear:Tower, wear:Drivetrain</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1216,12 +1192,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>wear:Concrete</t>
+          <t>wide:GCM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Concrete</t>
+          <t>GCM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1229,7 +1205,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>wear:Tower, wear:Drivetrain</t>
+          <t>wide:MeteorologicalModels</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1248,12 +1224,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>wear:Wood</t>
+          <t>wide:Mesoscale</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Mesoscale</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1261,7 +1237,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>wear:Tower</t>
+          <t>wide:MeteorologicalModels</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1280,12 +1256,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>wear:Aluminium</t>
+          <t>wide:Hindcast</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aluminium</t>
+          <t>Hindcast</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1293,7 +1269,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>wear:Drivetrain, wear:TransformerAndInductor</t>
+          <t>wide:MeteorologicalModels</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1312,12 +1288,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>wear:Cableinsulation</t>
+          <t>wide:MorisonEquation</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cable insulation</t>
+          <t>Morison Equation</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1325,7 +1301,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>wear:Drivetrain</t>
+          <t>wide:HydrodynamicModels</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1344,12 +1320,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>wear:Magnets</t>
+          <t>wide:Radiation-Diffraction</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Magnets</t>
+          <t>Radiation-Diffraction</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1357,7 +1333,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>wear:Drivetrain</t>
+          <t>wide:HydrodynamicModels</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1376,12 +1352,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>wear:Castiron</t>
+          <t>wide:Linear</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cast iron</t>
+          <t>Linear</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1389,7 +1365,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>wear:Drivetrain</t>
+          <t>wide:WaveModels</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1408,12 +1384,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>wear:Copper</t>
+          <t>wide:SecondOrder</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Copper</t>
+          <t>Second Order</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1421,7 +1397,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>wear:TransformerAndInductor</t>
+          <t>wide:WaveModels</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1440,12 +1416,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>wear:Insulation</t>
+          <t>wide:FullyNonlinear</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Insulation</t>
+          <t>Fully Nonlinear</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1453,7 +1429,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>wear:TransformerAndInductor</t>
+          <t>wide:WaveModels</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1472,12 +1448,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>wear:Laminatedsteelsheets</t>
+          <t>wide:Linearized</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Laminated steel sheets</t>
+          <t>Linearized</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1485,7 +1461,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>wear:TransformerAndInductor</t>
+          <t>wide:FlowModels</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1504,12 +1480,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>wear:Siliconsteel</t>
+          <t>wide:RANS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Silicon steel</t>
+          <t>RANS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1517,7 +1493,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>wear:TransformerAndInductor</t>
+          <t>wide:FlowModels</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1536,12 +1512,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>wear:Nickel-iron</t>
+          <t>wide:LES</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nickel-iron</t>
+          <t>LES</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1549,7 +1525,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>wear:TransformerAndInductor</t>
+          <t>wide:FlowModels</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1568,12 +1544,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>wear:Cobalt-iron</t>
+          <t>wide:DNS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cobalt-iron</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1581,7 +1557,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>wear:TransformerAndInductor</t>
+          <t>wide:FlowModels</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1600,12 +1576,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>wear:AmorphousAlloy</t>
+          <t>wide:VortexMethod</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Amorphous Alloy</t>
+          <t>Vortex Method</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1613,7 +1589,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>wear:TransformerAndInductor</t>
+          <t>wide:FlowModels</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1632,12 +1608,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>wear:Nanocrystalline</t>
+          <t>wide:Analytical</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nanocrystalline</t>
+          <t>Analytical</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1645,7 +1621,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>wear:TransformerAndInductor</t>
+          <t>wide:FlowModels</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1664,12 +1640,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>wear:Powdercore</t>
+          <t>wide:Physical</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Powder core</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1677,7 +1653,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>wear:TransformerAndInductor</t>
+          <t>wide:FlowModels</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1696,12 +1672,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>wear:Powderiron</t>
+          <t>wide:FEM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Powder iron</t>
+          <t>FEM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1709,7 +1685,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>wear:TransformerAndInductor</t>
+          <t>wide:AerolasticModels</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1728,12 +1704,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>wear:Ferrite</t>
+          <t>wide:PowerFlow</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ferrite</t>
+          <t>Power Flow</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1741,7 +1717,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>wear:TransformerAndInductor</t>
+          <t>wide:ElectricalModels</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1760,14 +1736,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>wear:</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>wide:OPF</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>OPF</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>wide:ElectricalModels</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -1784,14 +1768,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>wear:</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
+          <t>wide:Small-SignalModels</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Small-Signal Models</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>wide:ElectricalModels</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -1808,14 +1800,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>wear:</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
+          <t>wide:DynamicModels</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Dynamic Models</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>wide:ElectricalModels</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -1832,14 +1832,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>wear:</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
+          <t>wide:ShortCircuitModels</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Short Circuit Models</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>wide:ElectricalModels</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -1856,14 +1864,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>wear:</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
+          <t>wide:StateEstimation</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>State Estimation</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>wide:ElectricalModels</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -1880,14 +1896,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>wear:</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>wide:PowerProtectionAnalysisModels</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Power Protection Analysis Models</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>wide:ElectricalModels</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -1904,14 +1928,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>wear:</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>wide:ContingencyAnalysisModels</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Contingency Analysis Models</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>wide:ElectricalModels</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -1928,14 +1960,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>wear:</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>wide:HarmonicModels</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Harmonic Models</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>wide:ElectricalModels</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -1952,14 +1992,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>wear:</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
+          <t>wide:BoS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BoS</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>wide:FinancialModels</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -1976,14 +2024,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>wear:</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
+          <t>wide:NPV</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>NPV</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>wide:FinancialModels</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -2000,14 +2056,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>wear:</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
+          <t>wide:LCOE</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>LCOE</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>wide:FinancialModels</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -2021,6 +2085,62 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>wide:IRR</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>IRR</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>wide:FinancialModels</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>wide:</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/taxonomy.xlsx
+++ b/taxonomy.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/wide/</t>
+          <t>http://purl.org/idem/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>wide</t>
+          <t>idem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/wide/</t>
+          <t>http://purl.org/idem/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -653,7 +653,8 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WInd energy moDEls (WIDE) Taxonomy</t>
+          <t xml:space="preserve">IDEM: wInD Energy Models
+</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -960,7 +961,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>wide:MeteorologicalModels</t>
+          <t>idem:MeteorologicalModels</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -988,7 +989,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>wide:OceanographicModels</t>
+          <t>idem:OceanographicModels</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1016,7 +1017,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>wide:HydrodynamicModels</t>
+          <t>idem:HydrodynamicModels</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1029,7 +1030,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>wide:OceanographicModels</t>
+          <t>idem:OceanographicModels</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1048,7 +1049,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>wide:WaveModels</t>
+          <t>idem:WaveModels</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1061,7 +1062,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>wide:OceanographicModels</t>
+          <t>idem:OceanographicModels</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1080,7 +1081,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>wide:FlowModels</t>
+          <t>idem:FlowModels</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1108,7 +1109,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>wide:AerolasticModels</t>
+          <t>idem:AerolasticModels</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1136,7 +1137,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>wide:ElectricalModels</t>
+          <t>idem:ElectricalModels</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1164,7 +1165,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>wide:FinancialModels</t>
+          <t>idem:FinancialModels</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1192,7 +1193,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>wide:GCM</t>
+          <t>idem:GCM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1205,7 +1206,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>wide:MeteorologicalModels</t>
+          <t>idem:MeteorologicalModels</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1224,7 +1225,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>wide:Mesoscale</t>
+          <t>idem:Mesoscale</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1237,7 +1238,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>wide:MeteorologicalModels</t>
+          <t>idem:MeteorologicalModels</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1256,7 +1257,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>wide:Hindcast</t>
+          <t>idem:Hindcast</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1269,7 +1270,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>wide:MeteorologicalModels</t>
+          <t>idem:MeteorologicalModels</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1288,7 +1289,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>wide:MorisonEquation</t>
+          <t>idem:MorisonEquation</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1301,7 +1302,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>wide:HydrodynamicModels</t>
+          <t>idem:HydrodynamicModels</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1320,7 +1321,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>wide:Radiation-Diffraction</t>
+          <t>idem:Radiation-Diffraction</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1333,7 +1334,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>wide:HydrodynamicModels</t>
+          <t>idem:HydrodynamicModels</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1352,7 +1353,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>wide:Linear</t>
+          <t>idem:Linear</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1365,7 +1366,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>wide:WaveModels</t>
+          <t>idem:WaveModels</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1384,7 +1385,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>wide:SecondOrder</t>
+          <t>idem:SecondOrder</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1397,7 +1398,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>wide:WaveModels</t>
+          <t>idem:WaveModels</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1416,7 +1417,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>wide:FullyNonlinear</t>
+          <t>idem:FullyNonlinear</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1429,7 +1430,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>wide:WaveModels</t>
+          <t>idem:WaveModels</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1448,7 +1449,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>wide:Linearized</t>
+          <t>idem:Linearized</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1461,7 +1462,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>wide:FlowModels</t>
+          <t>idem:FlowModels</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1480,7 +1481,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>wide:RANS</t>
+          <t>idem:RANS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1493,7 +1494,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>wide:FlowModels</t>
+          <t>idem:FlowModels</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1512,7 +1513,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>wide:LES</t>
+          <t>idem:LES</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1525,7 +1526,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>wide:FlowModels</t>
+          <t>idem:FlowModels</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1544,7 +1545,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>wide:DNS</t>
+          <t>idem:DNS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1557,7 +1558,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>wide:FlowModels</t>
+          <t>idem:FlowModels</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1576,7 +1577,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>wide:VortexMethod</t>
+          <t>idem:VortexMethod</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1589,7 +1590,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>wide:FlowModels</t>
+          <t>idem:FlowModels</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1608,7 +1609,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>wide:Analytical</t>
+          <t>idem:Analytical</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1621,7 +1622,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>wide:FlowModels</t>
+          <t>idem:FlowModels</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1640,7 +1641,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>wide:Physical</t>
+          <t>idem:Physical</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1653,7 +1654,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>wide:FlowModels</t>
+          <t>idem:FlowModels</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1672,7 +1673,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>wide:FEM</t>
+          <t>idem:FEM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1685,7 +1686,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>wide:AerolasticModels</t>
+          <t>idem:AerolasticModels</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1704,7 +1705,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>wide:PowerFlow</t>
+          <t>idem:PowerFlow</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1717,7 +1718,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>wide:ElectricalModels</t>
+          <t>idem:ElectricalModels</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1736,7 +1737,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>wide:OPF</t>
+          <t>idem:OPF</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1749,7 +1750,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>wide:ElectricalModels</t>
+          <t>idem:ElectricalModels</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1768,7 +1769,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>wide:Small-SignalModels</t>
+          <t>idem:Small-SignalModels</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1781,7 +1782,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>wide:ElectricalModels</t>
+          <t>idem:ElectricalModels</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1800,7 +1801,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>wide:DynamicModels</t>
+          <t>idem:DynamicModels</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1813,7 +1814,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>wide:ElectricalModels</t>
+          <t>idem:ElectricalModels</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1832,7 +1833,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>wide:ShortCircuitModels</t>
+          <t>idem:ShortCircuitModels</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1845,7 +1846,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>wide:ElectricalModels</t>
+          <t>idem:ElectricalModels</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1864,7 +1865,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>wide:StateEstimation</t>
+          <t>idem:StateEstimation</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1877,7 +1878,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>wide:ElectricalModels</t>
+          <t>idem:ElectricalModels</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1896,7 +1897,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>wide:PowerProtectionAnalysisModels</t>
+          <t>idem:PowerProtectionAnalysisModels</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1909,7 +1910,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>wide:ElectricalModels</t>
+          <t>idem:ElectricalModels</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1928,7 +1929,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>wide:ContingencyAnalysisModels</t>
+          <t>idem:ContingencyAnalysisModels</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1941,7 +1942,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>wide:ElectricalModels</t>
+          <t>idem:ElectricalModels</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1960,7 +1961,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>wide:HarmonicModels</t>
+          <t>idem:HarmonicModels</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1973,7 +1974,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>wide:ElectricalModels</t>
+          <t>idem:ElectricalModels</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1992,7 +1993,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>wide:BoS</t>
+          <t>idem:BoS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2005,7 +2006,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>wide:FinancialModels</t>
+          <t>idem:FinancialModels</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2024,7 +2025,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>wide:NPV</t>
+          <t>idem:NPV</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2037,7 +2038,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>wide:FinancialModels</t>
+          <t>idem:FinancialModels</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2056,7 +2057,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>wide:LCOE</t>
+          <t>idem:LCOE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2069,7 +2070,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>wide:FinancialModels</t>
+          <t>idem:FinancialModels</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2088,7 +2089,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>wide:IRR</t>
+          <t>idem:IRR</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2101,7 +2102,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>wide:FinancialModels</t>
+          <t>idem:FinancialModels</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2120,7 +2121,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>wide:</t>
+          <t>idem:</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
